--- a/spc/results/t01/M_0.30_k_0.05/omp_GAUSSIAN_30dB/omp_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.30_k_0.05/omp_GAUSSIAN_30dB/omp_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,611 +855,6 @@
         <v>192.3134796285898</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>190.4723724106032</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>188.6168990575859</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>186.8017836511982</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>184.9193859040366</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>183.1171539097235</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>181.3879996514621</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>179.7467040888432</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>178.270300848276</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>176.8825313550529</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>175.3028549633873</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>173.7690518779386</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>172.256344415746</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>170.7160349190774</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>169.2951524909942</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>167.7075491170118</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>166.1297296624271</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>164.6561226545937</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>163.0156764859683</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>161.4525682626302</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>160.0189999650257</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>158.5861947895272</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>157.2129500495785</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>155.8997122444028</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>154.3522145524062</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>152.869252879446</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>151.6760339847391</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>150.262685382175</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>148.8753802982018</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>147.4676328561299</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>146.1653701557375</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>144.8497204551743</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>143.5626311359254</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>142.3283882411442</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>141.0464480117672</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>139.9240241028546</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>138.7986564107156</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>137.6432132009505</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>136.6057056138221</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>135.3365936987255</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>134.3274519512102</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>133.3430018487826</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>132.3126476290572</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>131.1295270943177</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>130.1072131940397</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>129.0831153929959</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>128.2144238623303</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>127.4030196633297</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>126.4623723317079</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>125.5712727772129</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>124.797410011694</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>123.9565306821684</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>123.1029747832739</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>122.2478097408935</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>121.3151349587781</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>120.4760769976127</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>119.7166570878991</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>118.9392096163897</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>118.2230984766872</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>117.5602651925702</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>116.8159227720005</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>116.0630132951364</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>115.3284690212271</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>114.6142358644717</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>113.8593313242966</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>113.1081154025134</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>112.2956191689858</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>111.4109033570155</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>110.5969868397813</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>109.7689483391176</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>108.8818197630802</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>108.0152202512829</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>107.2685037216904</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>106.4536906761118</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>105.7539655541009</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>105.0226789797979</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>104.3364183776996</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>103.6110505058279</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>102.8881516835953</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>102.2094238584581</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>101.5754913297185</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>101.0220041325252</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>100.4476832746302</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>99.8269508778484</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>99.09988295473714</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>98.40459227377525</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>97.68517191406733</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>97.05486900308745</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>96.40694740163445</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>95.73469807593226</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>95.01768508018517</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>94.37603079533176</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>93.73182926121991</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>93.11461479405803</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>92.43246263708124</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>91.90361697737211</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>91.29257687729327</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>90.67668281403014</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>90.12778585735607</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>89.58690422305982</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>89.0673699450339</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>88.55696554270551</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>88.05040153675714</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>87.59522937282068</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>87.0396098432291</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>86.56531969031765</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>86.05895166508969</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>85.544417075928</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>85.03991960478085</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>84.54931090032241</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>84.04323005161392</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>83.59903625838477</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>83.12924857378609</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>82.6551604523642</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>82.24538671154137</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>81.79211665822616</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>81.40327493169896</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>80.98995102178814</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>80.58369939902151</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>80.14944413691431</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>79.73502146497837</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>79.32342983601603</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
